--- a/Downer/29267/F2LSIP ITP 7 - Sealing (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 7 - Sealing (reviewed).xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cfprojects.sharepoint.com/sites/Projects2024/Shared Documents/Projects/24001 TT1 Levin to Foxton/5.0 Construction/3.0 Contract Management/7.0 Quality/1.0 ITP Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DF0F9835-0195-4A10-A0E2-36E96AE50312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F1C6D0-7BF7-4849-8364-4B6F17F9BD34}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{DF0F9835-0195-4A10-A0E2-36E96AE50312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4FD85E8-249A-4C5D-B116-87F59FCDFD08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -751,52 +751,19 @@
     <t>Item 7.5.3: DOS changed from 80% to 70%, Item 7.6.1: Temperature changed from air temperature to surface temperature.</t>
   </si>
   <si>
-    <t>Add - Require formal sign off record of previous layer prior to placment of next layer. DNZ to develop sign off sheet or approval system of work.</t>
-  </si>
-  <si>
-    <r>
-      <t>Compliant as per TNZ B/02 Clause 12
-DOS at each of minimim 5 points &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 70%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The road shall be reasonably dry before the binder is applied, and no spraying shall be carried out when the pavement </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>surface temperature is below 10 degrees C.</t>
-    </r>
+    <t>Require formal sign off record of previous layer prior to placment of next layer. DNZ to develop sign off sheet or approval system of work.</t>
+  </si>
+  <si>
+    <t>Bitumen distributors shall possess a current Certificate of Compliance with the BCA E/2
+Specification for Performance of Bitumen Distributors administered by the New Zealand
+Bitumen Contractors' Association Inc.</t>
+  </si>
+  <si>
+    <t>Designer to approve sealing design, prior to sealing.</t>
   </si>
   <si>
     <r>
       <t>Basecourse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/Subbase</t>
     </r>
     <r>
       <rPr>
@@ -806,17 +773,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t>/Subbase (Membrane seal) - To be prepped to a tight, uniform surface, swept to remove any dust and other foreign objects.
+Prime or previous seal - Full surface swept with a power broom to remove excess chip and any other foreign material
+The Contractor shall give the Engineer 24 hours’ notice of its intention to seal</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Membrane</t>
+      <t>Compliant as per TNZ B/02 Clause 12
+DOS at each of minimim 5 points &lt;</t>
     </r>
     <r>
       <rPr>
@@ -826,39 +791,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seal) - To be prepped to a tight, uniform surface, swept to remove any dust and other foreign objects.
-Prime or previous seal - Full surface swept with a power broom to remove excess chip and any other foreign material
-</t>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The road shall be reasonably dry before the binder is applied, and no spraying shall be carried out when the pavement </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Contractor shall give the Engineer 24 hours’ notice of its intention to seal</t>
-    </r>
-  </si>
-  <si>
-    <t>Add - Bitumen distributors shall possess a current Certificate of Compliance with the BCA E/2
-Specification for Performance of Bitumen Distributors administered by the New Zealand
-Bitumen Contractors' Association Inc.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Designer to approve sealing design, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior to sealing.</t>
+      <t>surface temperature is below 10 degrees C.</t>
     </r>
   </si>
 </sst>
@@ -870,7 +818,7 @@
     <numFmt numFmtId="164" formatCode="[Red]&quot;◄ Error&quot;;[Red]&quot;◄ Error&quot;;&quot;◄ [OK]&quot;"/>
     <numFmt numFmtId="165" formatCode="[Red]&quot;▲ Error&quot;;[Red]&quot;▲ Error&quot;;&quot;▲ [OK]&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1149,9 +1097,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2640,7 +2592,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2851,9 +2803,6 @@
     <xf numFmtId="0" fontId="36" fillId="40" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2864,27 +2813,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3137,6 +3065,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3274,7 +3232,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>5714116</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1191154</xdr:rowOff>
+      <xdr:rowOff>1187979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3316,9 +3274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5111484</xdr:colOff>
+      <xdr:colOff>5114659</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1263013</xdr:rowOff>
+      <xdr:rowOff>1266188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3360,7 +3318,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4488217</xdr:colOff>
+      <xdr:colOff>4485042</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1105020</xdr:rowOff>
     </xdr:to>
@@ -3396,6 +3354,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3634,98 +3596,98 @@
       <selection activeCell="B14" sqref="B14:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="88" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="82"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="116">
         <v>558010</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3733,18 +3695,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3764,18 +3726,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3795,20 +3757,20 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3824,14 +3786,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="117"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3847,22 +3809,22 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="136"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="133">
+      <c r="F9" s="125">
         <v>1</v>
       </c>
-      <c r="G9" s="135"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
@@ -3882,18 +3844,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="132"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
@@ -3913,18 +3875,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="132"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
@@ -3944,18 +3906,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="114" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="2" t="s">
         <v>48</v>
       </c>
@@ -3971,14 +3933,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
@@ -3994,18 +3956,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
@@ -4025,14 +3987,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="117"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="109"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="2" t="s">
         <v>62</v>
       </c>
@@ -4048,22 +4010,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="83">
         <v>45056</v>
       </c>
-      <c r="G16" s="87"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
@@ -4083,20 +4045,20 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="103"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="23" t="s">
         <v>73</v>
       </c>
@@ -4106,41 +4068,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="96"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
     </row>
-    <row r="19" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97" t="s">
+    <row r="19" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="98"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="100" t="s">
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
       <c r="L19" s="13" t="s">
         <v>66</v>
       </c>
@@ -4148,26 +4110,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+    <row r="20" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="107" t="s">
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
       <c r="L20" s="3" t="s">
         <v>66</v>
       </c>
@@ -4175,24 +4137,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="s">
+    <row r="21" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="110"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="112" t="s">
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="113"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="105"/>
       <c r="L21" s="14" t="s">
         <v>66</v>
       </c>
@@ -4200,7 +4162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
     <mergeCell ref="A12:A13"/>
@@ -4265,61 +4227,61 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="56" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="37.296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="56" customWidth="1"/>
     <col min="4" max="4" width="96" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="56" customWidth="1"/>
     <col min="11" max="16384" width="11" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="F1" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="H1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
     </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="159"/>
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="34" t="s">
         <v>89</v>
       </c>
@@ -4333,7 +4295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="65" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="65" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>115</v>
       </c>
@@ -4364,7 +4326,7 @@
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
     </row>
-    <row r="4" spans="1:11" s="65" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="65" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>116</v>
       </c>
@@ -4381,7 +4343,7 @@
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>117</v>
       </c>
@@ -4412,7 +4374,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" s="65" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="65" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>118</v>
       </c>
@@ -4429,7 +4391,7 @@
       <c r="J6" s="42"/>
       <c r="K6" s="43"/>
     </row>
-    <row r="7" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>127</v>
       </c>
@@ -4460,7 +4422,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>128</v>
       </c>
@@ -4491,7 +4453,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>129</v>
       </c>
@@ -4522,7 +4484,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>145</v>
       </c>
@@ -4553,7 +4515,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>130</v>
       </c>
@@ -4572,7 +4534,7 @@
       <c r="J11" s="42"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>131</v>
       </c>
@@ -4603,7 +4565,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>132</v>
       </c>
@@ -4634,7 +4596,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>134</v>
       </c>
@@ -4653,7 +4615,7 @@
       <c r="J14" s="42"/>
       <c r="K14" s="43"/>
     </row>
-    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>135</v>
       </c>
@@ -4684,7 +4646,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>146</v>
       </c>
@@ -4701,37 +4663,37 @@
       <c r="J16" s="42"/>
       <c r="K16" s="43"/>
     </row>
-    <row r="17" spans="1:11" s="65" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="81" t="s">
+    <row r="17" spans="1:11" s="164" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="158"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="163"/>
     </row>
-    <row r="18" spans="1:11" s="65" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="80"/>
+    <row r="18" spans="1:11" s="164" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="165"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="163"/>
     </row>
-    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>147</v>
       </c>
@@ -4742,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>143</v>
@@ -4762,7 +4724,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="32"/>
     </row>
-    <row r="20" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="79" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>148</v>
       </c>
@@ -4772,16 +4734,16 @@
       <c r="C20" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="71" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="31" t="s">
@@ -4793,7 +4755,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>197</v>
       </c>
@@ -4803,8 +4765,8 @@
       <c r="C21" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>204</v>
+      <c r="D21" s="167" t="s">
+        <v>207</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>200</v>
@@ -4821,10 +4783,10 @@
       <c r="I21" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="74"/>
+      <c r="J21" s="73"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>190</v>
       </c>
@@ -4837,11 +4799,11 @@
       <c r="F22" s="61"/>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
-      <c r="I22" s="73"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="42"/>
       <c r="K22" s="43"/>
     </row>
-    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>191</v>
       </c>
@@ -4851,8 +4813,8 @@
       <c r="C23" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>205</v>
+      <c r="D23" s="167" t="s">
+        <v>208</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>167</v>
@@ -4872,7 +4834,7 @@
       <c r="J23" s="30"/>
       <c r="K23" s="32"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>192</v>
       </c>
@@ -4903,7 +4865,7 @@
       <c r="J24" s="30"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>193</v>
       </c>
@@ -4934,7 +4896,7 @@
       <c r="J25" s="30"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>194</v>
       </c>
@@ -4965,7 +4927,7 @@
       <c r="J26" s="30"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>195</v>
       </c>
@@ -4996,29 +4958,29 @@
       <c r="J27" s="30"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="143" t="s">
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="145" t="s">
+    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
       <c r="F29" s="45"/>
       <c r="G29" s="29" t="s">
         <v>90</v>
@@ -5026,24 +4988,24 @@
       <c r="H29" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="151" t="s">
+      <c r="I29" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="146"/>
-      <c r="K29" s="153"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="145"/>
     </row>
-    <row r="30" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
+    <row r="30" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5344,7 +5306,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E7A9622-81B5-4B02-8A6D-454400FCD435}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E7A9622-81B5-4B02-8A6D-454400FCD435}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5358,6 +5336,8 @@
     <ds:schemaRef ds:uri="00a074dd-35c6-464f-8a0d-4890eeb3cc58"/>
     <ds:schemaRef ds:uri="eb05f8a5-c42a-4225-8f04-b90f859b0195"/>
     <ds:schemaRef ds:uri="cfb384ca-3992-46ff-8b76-964f3ce32752"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
